--- a/input/Nextera_PCR_for_all_25_tissues_and_5_in_vitro_samples.xlsx
+++ b/input/Nextera_PCR_for_all_25_tissues_and_5_in_vitro_samples.xlsx
@@ -132,7 +132,7 @@
     <t>#7</t>
   </si>
   <si>
-    <t>100x</t>
+    <t>30cpc</t>
   </si>
   <si>
     <t>Template</t>
@@ -198,7 +198,7 @@
     <t>#28</t>
   </si>
   <si>
-    <t>1000x</t>
+    <t>3cpc</t>
   </si>
   <si>
     <t>#21</t>
